--- a/biology/Zoologie/Gourami/Gourami.xlsx
+++ b/biology/Zoologie/Gourami/Gourami.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gourami est le nom vernaculaire de plusieurs poissons appartenant majoritairement à la famille des Osphronemidae. Ce sont des poissons de forme ovoïde vivant dans les eaux chaudes d'Asie. Ils ont de longs filaments sous le ventre, et des nageoires pectorales effilées qui ont un rôle tactile et sensoriel. Ce sont des poissons populaires dans les aquariums.
 Les gouramis appartiennent principalement à deux genres :
@@ -514,7 +526,9 @@
           <t>Membres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il y a 90 espèces parmi 15 genres :
 </t>
@@ -545,7 +559,9 @@
           <t>Maintenance en captivité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans un aquarium, les gouramis doivent être associés à des espèces calmes, venant de préférence, comme eux, d'Asie du Sud-Est. Il convient quand même d'éviter les barbus de Sumatra, qui ont tendance à grignoter les nageoires pelviennes des gouramis.
 </t>
@@ -576,9 +592,11 @@
           <t>Gastronomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Partiellement à cause de sa taille, le gourami géant est utilisé dans les traditions culinaires de nombreuses régions d'Asie. Séché en Inde ou frit en Indonésie. Il fait l'objet de nombreuses recettes sur l’île de Java[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Partiellement à cause de sa taille, le gourami géant est utilisé dans les traditions culinaires de nombreuses régions d'Asie. Séché en Inde ou frit en Indonésie. Il fait l'objet de nombreuses recettes sur l’île de Java.
 Le Gourami sert également de base pour la sauce de poisson, appelé Nuôc Mam. C'est une sauce très répandue dans la cuisine traditionnelle asiatique.
 </t>
         </is>
